--- a/Kalenska/Homework3 - Kalenska_Test Cases - Bills Exercise.xlsx
+++ b/Kalenska/Homework3 - Kalenska_Test Cases - Bills Exercise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykalenska2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykalenska2\Desktop\SK04\Kalenska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519FC247-A4D4-44AB-8905-C8041236F8F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A417F5B-BE4E-4DD7-90AC-73229C217DFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test case template" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="177">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -150,9 +150,6 @@
     <t>1. Enter username different than "testuser"</t>
   </si>
   <si>
-    <t xml:space="preserve">The username will be shown in the field </t>
-  </si>
-  <si>
     <t>When you add wrong username, a red colored message should be shown: "Wrong password or username!"</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. Enter Username </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your username will be shown in the field </t>
   </si>
   <si>
     <t>6.	When the login is successful, the user is redirected to the Homepage. 
@@ -220,31 +214,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Wrong username error messgae </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrong password error messgae </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blank username error messgae </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blank password error messgae </t>
-  </si>
-  <si>
     <t>TC007</t>
   </si>
   <si>
     <t>When a user clicks Create transaction, a confirmation window with OK and Cancel buttons appears</t>
-  </si>
-  <si>
-    <t>Visa Credit Card (1234 5678 9123..)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Add new card </t>
-  </si>
-  <si>
-    <t>2. Click on "Create Transaction"</t>
   </si>
   <si>
     <t>A confirmation window with OK and Cancel buttons appears</t>
@@ -266,9 +239,6 @@
     <t xml:space="preserve">succesfull transaction creation </t>
   </si>
   <si>
-    <t xml:space="preserve">3. Click "Ok" from the confirmation dialgog </t>
-  </si>
-  <si>
     <t>A green message: “The transaction is completed” appears</t>
   </si>
   <si>
@@ -279,9 +249,6 @@
     <t xml:space="preserve">succesfull transaction cancelation  </t>
   </si>
   <si>
-    <t xml:space="preserve">3. Click "Cancel" from the confirmation dialgog </t>
-  </si>
-  <si>
     <t>The confirmation window should be closed, and the user is redirected to the Homepage</t>
   </si>
   <si>
@@ -295,12 +262,6 @@
   </si>
   <si>
     <t>available dropdown list with predefined options</t>
-  </si>
-  <si>
-    <t>*add the existing test cards</t>
-  </si>
-  <si>
-    <t>1. Click on the arrow next to the Bill 1</t>
   </si>
   <si>
     <t xml:space="preserve">There should be a dropdown list with predefined options of choosing a card </t>
@@ -317,12 +278,6 @@
     <t>TC011</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Click on the Logout button </t>
-  </si>
-  <si>
-    <t>navigate to HomePage</t>
-  </si>
-  <si>
     <t>A confirmation window should appear</t>
   </si>
   <si>
@@ -341,9 +296,6 @@
     <t>Succesfull Logout</t>
   </si>
   <si>
-    <t>Navigate to HomePage</t>
-  </si>
-  <si>
     <t>A confirmation window should appear. The session should be killed and you should be redirected to the login page.</t>
   </si>
   <si>
@@ -380,9 +332,6 @@
     <t>4. Click on F5</t>
   </si>
   <si>
-    <t xml:space="preserve">Under waterfall column the ms should be less than 300 </t>
-  </si>
-  <si>
     <t>The username field on the login page should accept up to 30 symbols</t>
   </si>
   <si>
@@ -390,9 +339,6 @@
   </si>
   <si>
     <t xml:space="preserve">Username symbols restriction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter Username with more than 20 symbols </t>
   </si>
   <si>
     <t>2. Click Login</t>
@@ -528,12 +474,6 @@
     <t xml:space="preserve">2. Click OK </t>
   </si>
   <si>
-    <t xml:space="preserve">login </t>
-  </si>
-  <si>
-    <t>Homepage shoud load for less than 3 sek</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMS send when transaction is created </t>
   </si>
   <si>
@@ -580,6 +520,72 @@
   </si>
   <si>
     <t xml:space="preserve">you should be able to add arabic symbols and no error message should appear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message when you add wrong username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message when you add wrong password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message when you leave username filed blank </t>
+  </si>
+  <si>
+    <t>Error message when you leave the passoword field blank</t>
+  </si>
+  <si>
+    <t>Username: testuser / Password: TestUser1 / Visa Credit Card (1234 5678 ..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add new card </t>
+  </si>
+  <si>
+    <t>Click on "Create Transaction"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Ok" from the confirmation dialgog </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Cancel" from the confirmation dialgog </t>
+  </si>
+  <si>
+    <t>Click on the arrow next to the Bill 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add new Card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: testuser / Password: TestUser1 / </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Logout button </t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Ok within the Confirmation window </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Cancel within the Confirmation window </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under Time column the seconds should be less than 3 </t>
+  </si>
+  <si>
+    <t>Homepage shoud load for less than 3 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter Username with more than 30 symbols </t>
   </si>
 </sst>
 </file>
@@ -714,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -776,17 +782,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD798C85-911F-4EDC-9DC0-719360AE1682}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1338,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -1346,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1354,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1370,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,10 +1438,22 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>160</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1446,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E13DE3-DB10-4B00-929E-344E2A1BC3DF}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1481,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -1477,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,10 +1581,16 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>161</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F007BD54-5847-4985-86A0-46AF5B659371}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1618,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -1608,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,10 +1718,22 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>161</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1708,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C749A11D-ACC4-4627-A9D2-839035767E6F}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1761,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -1739,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1747,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1763,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1771,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,10 +1861,22 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>171</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1904,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B1" s="20"/>
     </row>
@@ -1870,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1963,7 +2014,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,7 +2026,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B1" s="22"/>
     </row>
@@ -1992,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2000,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2016,16 +2067,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2035,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,28 +2127,28 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2119,7 +2168,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2179,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B1" s="22"/>
     </row>
@@ -2147,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2155,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2171,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2179,7 +2228,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,16 +2279,16 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2263,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9184725-6B40-4376-AF40-52883BE0C246}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2324,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B1" s="22"/>
     </row>
@@ -2292,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2316,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,16 +2422,14 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2411,7 +2458,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,7 +2470,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -2440,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2568,7 @@
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>24</v>
@@ -2529,7 +2576,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -2537,7 +2584,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -2565,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924EC0F7-2252-47C7-AB64-AE95636F433B}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,11 +2627,11 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B1" s="16"/>
       <c r="D1" s="15" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E1" s="16"/>
     </row>
@@ -2605,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2619,13 +2666,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2647,13 +2694,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,74 +2799,74 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B18" s="11"/>
       <c r="D18" s="13" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B19" s="11"/>
       <c r="D19" s="13" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B20" s="11"/>
       <c r="D20" s="13" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="13" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E21" s="13"/>
     </row>
@@ -2827,10 +2874,10 @@
       <c r="A22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="13" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2896,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,7 +2907,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -2885,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,9 +3009,7 @@
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3008,7 +3053,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B1" s="20"/>
     </row>
@@ -3025,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3049,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,7 +3151,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
     </row>
@@ -3160,25 +3205,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="26"/>
+      <c r="A1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3202,7 +3247,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3210,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,22 +3306,22 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3325,7 +3370,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3349,25 +3394,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3375,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,7 +3436,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3450,22 +3495,22 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3503,7 +3548,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3514,7 +3559,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -3539,7 +3584,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3555,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3563,7 +3608,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3616,9 +3661,7 @@
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3633,7 +3676,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3650,7 +3693,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3661,7 +3704,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -3678,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3686,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3702,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3710,7 +3753,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,15 +3804,13 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -3780,7 +3821,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3797,7 +3838,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -3825,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,7 +3874,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3849,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3857,7 +3898,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,10 +3949,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3927,7 +3968,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +3985,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,7 +3996,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -3972,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +4021,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +4045,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4055,18 +4096,16 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4074,7 +4113,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4088,10 +4127,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58F0FD4-EF45-4109-AD0B-08558FA98DF6}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4100,23 +4139,23 @@
     <col min="2" max="2" width="106.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4124,23 +4163,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -4148,7 +4188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4156,7 +4196,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4164,13 +4204,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="18"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4178,7 +4218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -4186,18 +4226,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>162</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4210,10 +4256,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7DBBAA-D7A5-40B3-945F-F96012EF2C5C}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,7 +4270,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -4241,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4249,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4265,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4273,7 +4319,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,22 +4370,28 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>163</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4353,10 +4405,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A0773A-3909-4A0C-B2D9-2C24192AAC08}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4367,7 +4419,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -4384,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4392,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4408,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4416,7 +4468,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4467,22 +4519,28 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>163</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
